--- a/output_files/output_CL1.xlsx
+++ b/output_files/output_CL1.xlsx
@@ -983,7 +983,7 @@
       </c>
       <c r="BQ2" t="inlineStr">
         <is>
-          <t>Igg (mg)</t>
+          <t>IgG (mg)</t>
         </is>
       </c>
       <c r="BR2" t="inlineStr">
@@ -1113,7 +1113,7 @@
       </c>
       <c r="CQ2" t="inlineStr">
         <is>
-          <t>Igg (mg/10^9 cells/hr)</t>
+          <t>IgG (mg/10^9 cells/hr)</t>
         </is>
       </c>
       <c r="CR2" t="inlineStr">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="DQ2" t="inlineStr">
         <is>
-          <t>Igg (mg/10^9 cells/hr)</t>
+          <t>IgG (mg/10^9 cells/hr)</t>
         </is>
       </c>
       <c r="DR2" t="inlineStr">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="ES2" t="inlineStr">
         <is>
-          <t>Product (mg/10^9 cells/hr)</t>
+          <t>IgG (mg/10^9 cells/hr)</t>
         </is>
       </c>
       <c r="ET2" t="inlineStr">
